--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3009.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3009.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173740966681165</v>
+        <v>1.300926208496094</v>
       </c>
       <c r="B1">
-        <v>2.407228679826618</v>
+        <v>1.678855299949646</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.285144090652466</v>
       </c>
       <c r="D1">
-        <v>2.311321685485852</v>
+        <v>6.256363868713379</v>
       </c>
       <c r="E1">
-        <v>1.201493568881289</v>
+        <v>2.802734851837158</v>
       </c>
     </row>
   </sheetData>
